--- a/EXCEL_SUCCESS_EXECUTION/Default.xlsx
+++ b/EXCEL_SUCCESS_EXECUTION/Default.xlsx
@@ -254,10 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -626,10 +626,10 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44932</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>12</v>
       </c>
     </row>
@@ -655,10 +655,10 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>44934</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -684,10 +684,10 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>44936</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>13</v>
       </c>
     </row>
